--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ALGO NAME</t>
   </si>
@@ -47,9 +47,6 @@
     <t>https://www.techiedelight.com/brian-kernighans-algorithm-count-set-bits-integer/</t>
   </si>
   <si>
-    <t>NYD</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/element-appearing-more-than-25-in-sorted-array/submissions/</t>
   </si>
   <si>
@@ -62,26 +59,40 @@
     <t>solved in leetcode</t>
   </si>
   <si>
-    <t>22--dec-19</t>
-  </si>
-  <si>
-    <t>nyd</t>
-  </si>
-  <si>
     <t>https://www.techiedelight.com/check-if-two-binary-trees-are-identical-not-iterative-recursive/</t>
   </si>
   <si>
     <t>check two binary trees are identical or not</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>knight's tour</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/print-possible-knights-tours-chessboard/</t>
+  </si>
+  <si>
+    <t>uploaded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,15 +115,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,17 +441,17 @@
       <c r="A2" s="1">
         <v>43820</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>43832</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -445,36 +459,56 @@
         <v>43821</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4" s="2">
+        <v>43821</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ALGO NAME</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>uploaded</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/depth-first-search/</t>
+  </si>
+  <si>
+    <t>longest alternating consequtive subarray</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/longest-alternating-subarray-problem/</t>
   </si>
 </sst>
 </file>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +517,40 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43832</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43832</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43859</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>ALGO NAME</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>https://www.techiedelight.com/longest-alternating-subarray-problem/</t>
+  </si>
+  <si>
+    <t>exponential search</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/exponential-search/</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +557,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43907</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>ALGO NAME</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>https://www.techiedelight.com/exponential-search/</t>
+  </si>
+  <si>
+    <t>Height of a binary tree</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/delete-given-binary-tree-iterative-recursive/</t>
+  </si>
+  <si>
+    <t>Delete binary tree</t>
   </si>
 </sst>
 </file>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +580,34 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43908</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43908</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ALGO NAME</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Delete binary tree</t>
+  </si>
+  <si>
+    <t>leftview binary tree</t>
+  </si>
+  <si>
+    <t>level-order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Selection </t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/activity-selection-problem/</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,13 +611,49 @@
         <v>43908</v>
       </c>
       <c r="B10" s="1">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Overview.xlsx
+++ b/Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>ALGO NAME</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>https://www.techiedelight.com/activity-selection-problem/</t>
+  </si>
+  <si>
+    <t>Word search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search</t>
   </si>
 </sst>
 </file>
@@ -444,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
     <col min="4" max="4" width="44.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
@@ -656,6 +662,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43964</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
